--- a/mo/foo.xlsx
+++ b/mo/foo.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>area.name</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург</t>
   </si>
   <si>
     <t>Екатеринбург</t>
@@ -32,18 +26,6 @@
   </si>
   <si>
     <t>Красноярск</t>
-  </si>
-  <si>
-    <t>Нижний Новгород</t>
-  </si>
-  <si>
-    <t>Ростов-на-Дону</t>
-  </si>
-  <si>
-    <t>Казань</t>
-  </si>
-  <si>
-    <t>Краснодар</t>
   </si>
 </sst>
 </file>
@@ -401,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.223848087126501</v>
+        <v>0.03781066741133762</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -425,7 +407,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0932141859815694</v>
+        <v>0.03496230103323094</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -433,55 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.03781066741133762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.03496230103323094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
         <v>0.02987992180955041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.02228427813459927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.02105557106953365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.02094387042725496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.02044121753700084</v>
       </c>
     </row>
   </sheetData>
